--- a/src/youtubeSearchQueryData.xlsx
+++ b/src/youtubeSearchQueryData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaraA\IdeaProjects\untitled\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D495D61-F215-4AAF-80BD-12A64C190A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestYoutubeSearchQuery" sheetId="1" r:id="rId1"/>
@@ -50,19 +51,19 @@
     <t>cypress testing</t>
   </si>
   <si>
+    <t>youtube+rewind</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> youtube gaming </t>
+  </si>
+  <si>
     <t>do</t>
-  </si>
-  <si>
-    <t>youtube+rewind</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> youtube gaming </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,11 +374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +396,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -403,7 +404,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -411,7 +412,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -419,7 +420,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -427,7 +428,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -435,7 +436,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -443,18 +444,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
